--- a/biology/Botanique/Calonarius_ionochlorus/Calonarius_ionochlorus.xlsx
+++ b/biology/Botanique/Calonarius_ionochlorus/Calonarius_ionochlorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calonarius ionochlorus est une espèce de champignons basidiomycètes de la famille des Cortinariaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce champignon présente un chapeau vert olive pouvant aller jusqu'au brun. Il mesure entre 5 et 8 cm de diamètre[1]. Les lamelles de cette espèces sont de couleur lilas[1].
-La chair du sporophore est jaune[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon présente un chapeau vert olive pouvant aller jusqu'au brun. Il mesure entre 5 et 8 cm de diamètre. Les lamelles de cette espèces sont de couleur lilas.
+La chair du sporophore est jaune.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un champignon rarement observé. Il s'agit d'une espèce méditerranéenne mais elle est parfois aperçue dans d'autres région, comme celle de la Forêt Noire depuis 1994[3].
-On le retrouve sous les chênes[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un champignon rarement observé. Il s'agit d'une espèce méditerranéenne mais elle est parfois aperçue dans d'autres région, comme celle de la Forêt Noire depuis 1994.
+On le retrouve sous les chênes.
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce fait l'objet d'un classement en liste rouge de l'UICN dans plusieurs régions françaises[5].
-Il est classé « NT » (quasi menacé) en région Midi-Pyrénées, « EN » (en danger) pour les régions Franche-Comté et Auvergne-Rhône-Alpes, et « VU » (vulnérable) en région Alsace[6].
-Une étude, menée conjointement en France par l’UICN, l’OFB, le MNHN et l’AdoniF sur le statut de conservation dans le pays de plus de 250 champignons, a été publiée en avril 2024, afin de permettre une meilleure protection et un meilleur recensement des espèces concernées[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce fait l'objet d'un classement en liste rouge de l'UICN dans plusieurs régions françaises.
+Il est classé « NT » (quasi menacé) en région Midi-Pyrénées, « EN » (en danger) pour les régions Franche-Comté et Auvergne-Rhône-Alpes, et « VU » (vulnérable) en région Alsace.
+Une étude, menée conjointement en France par l’UICN, l’OFB, le MNHN et l’AdoniF sur le statut de conservation dans le pays de plus de 250 champignons, a été publiée en avril 2024, afin de permettre une meilleure protection et un meilleur recensement des espèces concernées.
 </t>
         </is>
       </c>
@@ -608,11 +626,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom correct complet avec auteur de ce taxon est Calonarius ionochlorus (Maire) Niskanen (d) &amp; Liimat. (d), 2022[8],[9].
-L'espèce a été initialement classée dans le genre Cortinarius sous le basionyme Cortinarius ionochlorus Maire, 1937[8],[10]. L'espèce a été découverte sous des Quercus en terrain calcaire dans les environs de Figaró-Montmany (El Figueró en catalan).
-Calonarius ionochlorus a pour synonymes[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom correct complet avec auteur de ce taxon est Calonarius ionochlorus (Maire) Niskanen (d) &amp; Liimat. (d), 2022,.
+L'espèce a été initialement classée dans le genre Cortinarius sous le basionyme Cortinarius ionochlorus Maire, 1937,. L'espèce a été découverte sous des Quercus en terrain calcaire dans les environs de Figaró-Montmany (El Figueró en catalan).
+Calonarius ionochlorus a pour synonymes :
 Cortinarius atrovirens subsp. ionochlorus (Maire) Vizzini &amp; Gasparini, 2008
 Cortinarius ionochlorus var. ionochlorus
 Cortinarius ionochlorus Maire, 1937</t>
@@ -643,7 +663,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sous le taxon actuel, Calonarius ionochlorus :
 (en) K. Liimatainen, JT. Kim, L. Pokorny, PM. Kirk, B. Dentinger, T. Niskanen, « Taming the beast: a revised classification of Cortinariaceae based on genomic data », Fungal diversity, vol. 112,‎ 2022, p. 89-170 (lire en ligne)
